--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="293">
   <si>
     <t>Endereço de e-mail</t>
   </si>
@@ -448,55 +448,55 @@
     <t>vinicius.carvalho@ifes.edu.br</t>
   </si>
   <si>
-    <t>PROC-2025-0001</t>
-  </si>
-  <si>
-    <t>PROC-2025-0002</t>
+    <t>PROC-2024-0001</t>
+  </si>
+  <si>
+    <t>PROC-2024-0002</t>
   </si>
   <si>
     <t>PROC-2025-0003</t>
   </si>
   <si>
-    <t>PROC-2023-0004</t>
-  </si>
-  <si>
-    <t>PROC-2025-0005</t>
+    <t>PROC-2025-0004</t>
+  </si>
+  <si>
+    <t>PROC-2023-0005</t>
   </si>
   <si>
     <t>PROC-2025-0006</t>
   </si>
   <si>
-    <t>PROC-2023-0007</t>
-  </si>
-  <si>
-    <t>PROC-2024-0008</t>
-  </si>
-  <si>
-    <t>PROC-2023-0009</t>
-  </si>
-  <si>
-    <t>PROC-2025-0010</t>
+    <t>PROC-2024-0007</t>
+  </si>
+  <si>
+    <t>PROC-2023-0008</t>
+  </si>
+  <si>
+    <t>PROC-2024-0009</t>
+  </si>
+  <si>
+    <t>PROC-2024-0010</t>
   </si>
   <si>
     <t>PROC-2025-0011</t>
   </si>
   <si>
-    <t>PROC-2025-0012</t>
+    <t>PROC-2023-0012</t>
   </si>
   <si>
     <t>PROC-2024-0013</t>
   </si>
   <si>
-    <t>PROC-2023-0014</t>
+    <t>PROC-2024-0014</t>
   </si>
   <si>
     <t>PROC-2023-0015</t>
   </si>
   <si>
-    <t>PROC-2025-0016</t>
-  </si>
-  <si>
-    <t>PROC-2023-0017</t>
+    <t>PROC-2024-0016</t>
+  </si>
+  <si>
+    <t>PROC-2025-0017</t>
   </si>
   <si>
     <t>PROC-2023-0018</t>
@@ -511,352 +511,388 @@
     <t>PROC-2024-0021</t>
   </si>
   <si>
-    <t>PROC-2025-0022</t>
-  </si>
-  <si>
-    <t>PROC-2024-0023</t>
+    <t>PROC-2023-0022</t>
+  </si>
+  <si>
+    <t>PROC-2023-0023</t>
   </si>
   <si>
     <t>PROC-2023-0024</t>
   </si>
   <si>
-    <t>PROC-2024-0025</t>
+    <t>PROC-2025-0025</t>
   </si>
   <si>
     <t>PROC-2023-0026</t>
   </si>
   <si>
-    <t>PROC-2025-0027</t>
+    <t>PROC-2023-0027</t>
   </si>
   <si>
     <t>PROC-2024-0028</t>
   </si>
   <si>
-    <t>PROC-2025-0029</t>
-  </si>
-  <si>
-    <t>PROC-2024-0030</t>
+    <t>PROC-2024-0029</t>
+  </si>
+  <si>
+    <t>PROC-2023-0030</t>
   </si>
   <si>
     <t>PROC-2023-0031</t>
   </si>
   <si>
-    <t>PROC-2025-0032</t>
-  </si>
-  <si>
-    <t>PROC-2025-0033</t>
+    <t>PROC-2024-0032</t>
+  </si>
+  <si>
+    <t>PROC-2023-0033</t>
   </si>
   <si>
     <t>PROC-2024-0034</t>
   </si>
   <si>
-    <t>PROC-2023-0035</t>
+    <t>PROC-2025-0035</t>
   </si>
   <si>
     <t>PROC-2023-0036</t>
   </si>
   <si>
-    <t>PROC-2023-0037</t>
-  </si>
-  <si>
-    <t>PROC-2025-0038</t>
-  </si>
-  <si>
-    <t>PROC-2024-0039</t>
-  </si>
-  <si>
-    <t>PROC-2023-0040</t>
-  </si>
-  <si>
-    <t>PROC-2023-0041</t>
-  </si>
-  <si>
-    <t>PROC-2023-0042</t>
-  </si>
-  <si>
-    <t>PROC-2025-0043</t>
-  </si>
-  <si>
-    <t>PROC-2023-0044</t>
-  </si>
-  <si>
-    <t>PROC-2024-0045</t>
-  </si>
-  <si>
-    <t>PROC-2025-0046</t>
-  </si>
-  <si>
-    <t>PROC-2023-0047</t>
-  </si>
-  <si>
-    <t>PROC-2024-0048</t>
+    <t>PROC-2025-0037</t>
+  </si>
+  <si>
+    <t>PROC-2023-0038</t>
+  </si>
+  <si>
+    <t>PROC-2025-0039</t>
+  </si>
+  <si>
+    <t>PROC-2024-0040</t>
+  </si>
+  <si>
+    <t>PROC-2025-0041</t>
+  </si>
+  <si>
+    <t>PROC-2024-0042</t>
+  </si>
+  <si>
+    <t>PROC-2024-0043</t>
+  </si>
+  <si>
+    <t>PROC-2024-0044</t>
+  </si>
+  <si>
+    <t>PROC-2025-0045</t>
+  </si>
+  <si>
+    <t>PROC-2024-0046</t>
+  </si>
+  <si>
+    <t>PROC-2025-0047</t>
+  </si>
+  <si>
+    <t>PROC-2023-0048</t>
   </si>
   <si>
     <t>PROC-2023-0049</t>
   </si>
   <si>
-    <t>PROC-2025-0050</t>
-  </si>
-  <si>
-    <t>2023-08-17</t>
-  </si>
-  <si>
-    <t>2023-07-29</t>
-  </si>
-  <si>
-    <t>2023-06-28</t>
-  </si>
-  <si>
-    <t>2025-10-31</t>
-  </si>
-  <si>
-    <t>2024-02-12</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>2023-11-23</t>
-  </si>
-  <si>
-    <t>2024-07-23</t>
-  </si>
-  <si>
-    <t>2025-01-05</t>
-  </si>
-  <si>
-    <t>2024-06-25</t>
-  </si>
-  <si>
-    <t>2025-07-29</t>
+    <t>PROC-2024-0050</t>
+  </si>
+  <si>
+    <t>2023-07-14</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>2025-03-16</t>
+  </si>
+  <si>
+    <t>2024-09-24</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>2023-05-24</t>
+  </si>
+  <si>
+    <t>2025-01-31</t>
+  </si>
+  <si>
+    <t>2025-01-28</t>
+  </si>
+  <si>
+    <t>2023-02-15</t>
+  </si>
+  <si>
+    <t>2023-09-30</t>
+  </si>
+  <si>
+    <t>2025-03-26</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>2025-04-24</t>
+  </si>
+  <si>
+    <t>2025-10-09</t>
+  </si>
+  <si>
+    <t>2023-02-06</t>
+  </si>
+  <si>
+    <t>2023-01-29</t>
+  </si>
+  <si>
+    <t>2024-06-01</t>
+  </si>
+  <si>
+    <t>2024-07-28</t>
+  </si>
+  <si>
+    <t>2023-03-29</t>
+  </si>
+  <si>
+    <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2023-11-24</t>
+  </si>
+  <si>
+    <t>2024-05-16</t>
+  </si>
+  <si>
+    <t>2024-09-15</t>
+  </si>
+  <si>
+    <t>2023-02-21</t>
+  </si>
+  <si>
+    <t>2023-11-22</t>
+  </si>
+  <si>
+    <t>2024-01-28</t>
+  </si>
+  <si>
+    <t>2023-09-25</t>
+  </si>
+  <si>
+    <t>2025-10-20</t>
+  </si>
+  <si>
+    <t>2023-11-28</t>
+  </si>
+  <si>
+    <t>2023-07-04</t>
+  </si>
+  <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>2024-08-08</t>
+  </si>
+  <si>
+    <t>2024-05-09</t>
+  </si>
+  <si>
+    <t>2023-09-19</t>
+  </si>
+  <si>
+    <t>2023-12-11</t>
+  </si>
+  <si>
+    <t>2023-09-28</t>
+  </si>
+  <si>
+    <t>2025-12-21</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>2024-08-15</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>2024-04-27</t>
+  </si>
+  <si>
+    <t>2023-12-03</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>2023-10-14</t>
+  </si>
+  <si>
+    <t>2023-12-26</t>
+  </si>
+  <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
+    <t>2025-11-22</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
   </si>
   <si>
     <t>2025-01-10</t>
   </si>
   <si>
-    <t>2023-06-13</t>
-  </si>
-  <si>
-    <t>2025-02-17</t>
-  </si>
-  <si>
-    <t>2024-06-30</t>
-  </si>
-  <si>
-    <t>2023-05-27</t>
-  </si>
-  <si>
-    <t>2025-12-29</t>
-  </si>
-  <si>
-    <t>2025-08-04</t>
-  </si>
-  <si>
-    <t>2023-03-07</t>
-  </si>
-  <si>
-    <t>2024-07-02</t>
-  </si>
-  <si>
-    <t>2025-07-28</t>
-  </si>
-  <si>
-    <t>2024-06-22</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>2023-08-13</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
-  </si>
-  <si>
-    <t>2023-08-23</t>
-  </si>
-  <si>
-    <t>2024-01-01</t>
-  </si>
-  <si>
-    <t>2025-11-05</t>
-  </si>
-  <si>
-    <t>2025-02-04</t>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-  </si>
-  <si>
-    <t>2024-10-25</t>
-  </si>
-  <si>
-    <t>2024-05-05</t>
-  </si>
-  <si>
-    <t>2025-12-26</t>
-  </si>
-  <si>
-    <t>2025-08-31</t>
-  </si>
-  <si>
-    <t>2024-06-26</t>
-  </si>
-  <si>
-    <t>2024-02-16</t>
-  </si>
-  <si>
-    <t>2025-02-03</t>
-  </si>
-  <si>
-    <t>2023-05-12</t>
-  </si>
-  <si>
-    <t>2023-05-01</t>
-  </si>
-  <si>
-    <t>2025-11-18</t>
-  </si>
-  <si>
-    <t>2025-08-26</t>
-  </si>
-  <si>
-    <t>2023-07-13</t>
-  </si>
-  <si>
-    <t>2023-04-21</t>
-  </si>
-  <si>
-    <t>2023-07-21</t>
-  </si>
-  <si>
-    <t>2024-05-24</t>
-  </si>
-  <si>
-    <t>2025-08-05</t>
+    <t>2024-03-19</t>
+  </si>
+  <si>
+    <t>2023-08-12</t>
+  </si>
+  <si>
+    <t>2023-06-08</t>
+  </si>
+  <si>
+    <t>2023-03-13</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
+  </si>
+  <si>
+    <t>2025-04-12</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>2024-12-15</t>
+  </si>
+  <si>
+    <t>2025-03-24</t>
+  </si>
+  <si>
+    <t>2025-05-07</t>
+  </si>
+  <si>
+    <t>2024-12-12</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>2025-04-28</t>
+  </si>
+  <si>
+    <t>2023-02-05</t>
+  </si>
+  <si>
+    <t>2023-09-02</t>
   </si>
   <si>
     <t>2023-04-14</t>
   </si>
   <si>
-    <t>2023-01-31</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <t>2024-07-17</t>
-  </si>
-  <si>
-    <t>2024-11-20</t>
-  </si>
-  <si>
-    <t>2025-02-14</t>
-  </si>
-  <si>
-    <t>2023-05-23</t>
-  </si>
-  <si>
-    <t>2025-01-17</t>
-  </si>
-  <si>
-    <t>2024-03-25</t>
-  </si>
-  <si>
-    <t>2024-10-06</t>
-  </si>
-  <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
-    <t>2023-10-11</t>
-  </si>
-  <si>
-    <t>2023-11-24</t>
-  </si>
-  <si>
-    <t>2025-08-16</t>
+    <t>2023-12-25</t>
+  </si>
+  <si>
+    <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>2024-09-21</t>
+  </si>
+  <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
+    <t>2023-06-27</t>
+  </si>
+  <si>
+    <t>2024-04-19</t>
+  </si>
+  <si>
+    <t>2023-03-08</t>
+  </si>
+  <si>
+    <t>2024-06-05</t>
+  </si>
+  <si>
+    <t>2024-02-20</t>
+  </si>
+  <si>
+    <t>2025-01-27</t>
+  </si>
+  <si>
+    <t>2025-02-08</t>
+  </si>
+  <si>
+    <t>2024-01-08</t>
+  </si>
+  <si>
+    <t>2024-09-19</t>
+  </si>
+  <si>
+    <t>2024-11-17</t>
+  </si>
+  <si>
+    <t>2025-09-17</t>
+  </si>
+  <si>
+    <t>2023-06-23</t>
+  </si>
+  <si>
+    <t>2024-01-02</t>
+  </si>
+  <si>
+    <t>2025-11-08</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2023-01-08</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>2023-09-07</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>2024-09-03</t>
+  </si>
+  <si>
+    <t>2024-01-16</t>
+  </si>
+  <si>
+    <t>2024-07-22</t>
+  </si>
+  <si>
+    <t>2023-02-14</t>
+  </si>
+  <si>
+    <t>2024-05-03</t>
+  </si>
+  <si>
+    <t>2023-03-28</t>
+  </si>
+  <si>
+    <t>2024-08-03</t>
   </si>
   <si>
     <t>2023-11-20</t>
-  </si>
-  <si>
-    <t>2023-08-06</t>
-  </si>
-  <si>
-    <t>2023-08-18</t>
-  </si>
-  <si>
-    <t>2023-06-11</t>
-  </si>
-  <si>
-    <t>2025-05-16</t>
-  </si>
-  <si>
-    <t>2025-11-25</t>
-  </si>
-  <si>
-    <t>2024-04-16</t>
-  </si>
-  <si>
-    <t>2023-03-06</t>
-  </si>
-  <si>
-    <t>2025-09-21</t>
-  </si>
-  <si>
-    <t>2025-06-01</t>
-  </si>
-  <si>
-    <t>2024-11-25</t>
-  </si>
-  <si>
-    <t>2025-07-07</t>
-  </si>
-  <si>
-    <t>2023-06-04</t>
-  </si>
-  <si>
-    <t>2024-08-08</t>
-  </si>
-  <si>
-    <t>2023-04-08</t>
-  </si>
-  <si>
-    <t>2025-01-12</t>
-  </si>
-  <si>
-    <t>2023-06-26</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>2024-04-06</t>
-  </si>
-  <si>
-    <t>2024-12-13</t>
-  </si>
-  <si>
-    <t>2023-12-28</t>
-  </si>
-  <si>
-    <t>2023-10-27</t>
-  </si>
-  <si>
-    <t>2025-10-30</t>
-  </si>
-  <si>
-    <t>2025-12-31</t>
-  </si>
-  <si>
-    <t>2024-04-21</t>
-  </si>
-  <si>
-    <t>2025-10-12</t>
   </si>
 </sst>
 </file>
@@ -1296,16 +1332,13 @@
         <v>194</v>
       </c>
       <c r="K2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M2" t="s">
-        <v>242</v>
-      </c>
-      <c r="N2" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1342,8 +1375,14 @@
       <c r="K3" t="s">
         <v>243</v>
       </c>
+      <c r="L3" t="s">
+        <v>246</v>
+      </c>
       <c r="M3" t="s">
         <v>243</v>
+      </c>
+      <c r="N3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1378,16 +1417,13 @@
         <v>196</v>
       </c>
       <c r="K4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L4" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="M4" t="s">
-        <v>242</v>
-      </c>
-      <c r="N4" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1422,10 +1458,10 @@
         <v>197</v>
       </c>
       <c r="K5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1462,8 +1498,14 @@
       <c r="K6" t="s">
         <v>243</v>
       </c>
+      <c r="L6" t="s">
+        <v>248</v>
+      </c>
       <c r="M6" t="s">
         <v>243</v>
+      </c>
+      <c r="N6" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1498,13 +1540,16 @@
         <v>199</v>
       </c>
       <c r="K7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L7" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="M7" t="s">
         <v>243</v>
+      </c>
+      <c r="N7" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1539,10 +1584,10 @@
         <v>200</v>
       </c>
       <c r="K8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1577,16 +1622,13 @@
         <v>201</v>
       </c>
       <c r="K9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L9" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M9" t="s">
-        <v>242</v>
-      </c>
-      <c r="N9" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1621,10 +1663,10 @@
         <v>202</v>
       </c>
       <c r="K10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1661,8 +1703,11 @@
       <c r="K11" t="s">
         <v>243</v>
       </c>
+      <c r="L11" t="s">
+        <v>251</v>
+      </c>
       <c r="M11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1697,16 +1742,10 @@
         <v>204</v>
       </c>
       <c r="K12" t="s">
-        <v>242</v>
-      </c>
-      <c r="L12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M12" t="s">
-        <v>242</v>
-      </c>
-      <c r="N12" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1741,16 +1780,13 @@
         <v>205</v>
       </c>
       <c r="K13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L13" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M13" t="s">
-        <v>242</v>
-      </c>
-      <c r="N13" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1785,10 +1821,10 @@
         <v>206</v>
       </c>
       <c r="K14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1823,16 +1859,10 @@
         <v>207</v>
       </c>
       <c r="K15" t="s">
-        <v>242</v>
-      </c>
-      <c r="L15" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M15" t="s">
-        <v>242</v>
-      </c>
-      <c r="N15" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1867,10 +1897,10 @@
         <v>208</v>
       </c>
       <c r="K16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1907,8 +1937,14 @@
       <c r="K17" t="s">
         <v>243</v>
       </c>
+      <c r="L17" t="s">
+        <v>253</v>
+      </c>
       <c r="M17" t="s">
         <v>243</v>
+      </c>
+      <c r="N17" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1943,10 +1979,10 @@
         <v>210</v>
       </c>
       <c r="K18" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M18" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1981,16 +2017,13 @@
         <v>211</v>
       </c>
       <c r="K19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L19" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M19" t="s">
-        <v>242</v>
-      </c>
-      <c r="N19" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2027,8 +2060,14 @@
       <c r="K20" t="s">
         <v>243</v>
       </c>
+      <c r="L20" t="s">
+        <v>255</v>
+      </c>
       <c r="M20" t="s">
         <v>243</v>
+      </c>
+      <c r="N20" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2063,16 +2102,16 @@
         <v>213</v>
       </c>
       <c r="K21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L21" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N21" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2107,16 +2146,10 @@
         <v>214</v>
       </c>
       <c r="K22" t="s">
-        <v>242</v>
-      </c>
-      <c r="L22" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="M22" t="s">
-        <v>242</v>
-      </c>
-      <c r="N22" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2151,10 +2184,10 @@
         <v>215</v>
       </c>
       <c r="K23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2189,16 +2222,16 @@
         <v>216</v>
       </c>
       <c r="K24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N24" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2233,13 +2266,10 @@
         <v>217</v>
       </c>
       <c r="K25" t="s">
-        <v>242</v>
-      </c>
-      <c r="L25" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2274,16 +2304,16 @@
         <v>218</v>
       </c>
       <c r="K26" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M26" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N26" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2320,8 +2350,14 @@
       <c r="K27" t="s">
         <v>243</v>
       </c>
+      <c r="L27" t="s">
+        <v>259</v>
+      </c>
       <c r="M27" t="s">
         <v>243</v>
+      </c>
+      <c r="N27" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2353,13 +2389,19 @@
         <v>170</v>
       </c>
       <c r="J28" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="K28" t="s">
         <v>243</v>
       </c>
+      <c r="L28" t="s">
+        <v>227</v>
+      </c>
       <c r="M28" t="s">
         <v>243</v>
+      </c>
+      <c r="N28" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2391,19 +2433,13 @@
         <v>171</v>
       </c>
       <c r="J29" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s">
-        <v>242</v>
-      </c>
-      <c r="L29" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="M29" t="s">
-        <v>242</v>
-      </c>
-      <c r="N29" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2435,16 +2471,13 @@
         <v>172</v>
       </c>
       <c r="J30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K30" t="s">
-        <v>242</v>
-      </c>
-      <c r="L30" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="M30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2476,13 +2509,16 @@
         <v>173</v>
       </c>
       <c r="J31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K31" t="s">
         <v>243</v>
       </c>
+      <c r="L31" t="s">
+        <v>260</v>
+      </c>
       <c r="M31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2514,13 +2550,16 @@
         <v>174</v>
       </c>
       <c r="J32" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K32" t="s">
         <v>243</v>
       </c>
+      <c r="L32" t="s">
+        <v>261</v>
+      </c>
       <c r="M32" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2552,13 +2591,13 @@
         <v>175</v>
       </c>
       <c r="J33" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2590,16 +2629,19 @@
         <v>176</v>
       </c>
       <c r="J34" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K34" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L34" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M34" t="s">
         <v>243</v>
+      </c>
+      <c r="N34" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2631,19 +2673,16 @@
         <v>177</v>
       </c>
       <c r="J35" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L35" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M35" t="s">
-        <v>242</v>
-      </c>
-      <c r="N35" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2675,13 +2714,19 @@
         <v>178</v>
       </c>
       <c r="J36" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K36" t="s">
         <v>243</v>
       </c>
+      <c r="L36" t="s">
+        <v>264</v>
+      </c>
       <c r="M36" t="s">
         <v>243</v>
+      </c>
+      <c r="N36" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2713,13 +2758,19 @@
         <v>179</v>
       </c>
       <c r="J37" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K37" t="s">
         <v>243</v>
       </c>
+      <c r="L37" t="s">
+        <v>265</v>
+      </c>
       <c r="M37" t="s">
         <v>243</v>
+      </c>
+      <c r="N37" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2751,16 +2802,13 @@
         <v>180</v>
       </c>
       <c r="J38" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K38" t="s">
-        <v>242</v>
-      </c>
-      <c r="L38" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="M38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2792,13 +2840,19 @@
         <v>181</v>
       </c>
       <c r="J39" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K39" t="s">
         <v>243</v>
       </c>
+      <c r="L39" t="s">
+        <v>266</v>
+      </c>
       <c r="M39" t="s">
         <v>243</v>
+      </c>
+      <c r="N39" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2830,19 +2884,19 @@
         <v>182</v>
       </c>
       <c r="J40" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L40" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="M40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N40" t="s">
-        <v>278</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2874,19 +2928,16 @@
         <v>183</v>
       </c>
       <c r="J41" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="K41" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L41" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="M41" t="s">
-        <v>242</v>
-      </c>
-      <c r="N41" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2918,16 +2969,16 @@
         <v>184</v>
       </c>
       <c r="J42" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K42" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L42" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M42" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2959,19 +3010,13 @@
         <v>185</v>
       </c>
       <c r="J43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K43" t="s">
-        <v>242</v>
-      </c>
-      <c r="L43" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="M43" t="s">
-        <v>242</v>
-      </c>
-      <c r="N43" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3003,16 +3048,19 @@
         <v>186</v>
       </c>
       <c r="J44" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L44" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="M44" t="s">
         <v>243</v>
+      </c>
+      <c r="N44" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3044,19 +3092,19 @@
         <v>187</v>
       </c>
       <c r="J45" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L45" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N45" t="s">
-        <v>214</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3088,13 +3136,19 @@
         <v>188</v>
       </c>
       <c r="J46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K46" t="s">
         <v>243</v>
       </c>
+      <c r="L46" t="s">
+        <v>271</v>
+      </c>
       <c r="M46" t="s">
         <v>243</v>
+      </c>
+      <c r="N46" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3126,16 +3180,19 @@
         <v>189</v>
       </c>
       <c r="J47" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K47" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L47" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="M47" t="s">
         <v>243</v>
+      </c>
+      <c r="N47" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3167,19 +3224,16 @@
         <v>190</v>
       </c>
       <c r="J48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K48" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L48" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M48" t="s">
-        <v>242</v>
-      </c>
-      <c r="N48" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3211,19 +3265,16 @@
         <v>191</v>
       </c>
       <c r="J49" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K49" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L49" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="M49" t="s">
-        <v>242</v>
-      </c>
-      <c r="N49" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3255,13 +3306,13 @@
         <v>192</v>
       </c>
       <c r="J50" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K50" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M50" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3293,13 +3344,19 @@
         <v>193</v>
       </c>
       <c r="J51" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K51" t="s">
         <v>243</v>
       </c>
+      <c r="L51" t="s">
+        <v>275</v>
+      </c>
       <c r="M51" t="s">
         <v>243</v>
+      </c>
+      <c r="N51" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="296">
   <si>
     <t>Endereço de e-mail</t>
   </si>
@@ -448,13 +448,13 @@
     <t>vinicius.carvalho@ifes.edu.br</t>
   </si>
   <si>
-    <t>PROC-2024-0001</t>
-  </si>
-  <si>
-    <t>PROC-2024-0002</t>
-  </si>
-  <si>
-    <t>PROC-2025-0003</t>
+    <t>PROC-2023-0001</t>
+  </si>
+  <si>
+    <t>PROC-2023-0002</t>
+  </si>
+  <si>
+    <t>PROC-2024-0003</t>
   </si>
   <si>
     <t>PROC-2025-0004</t>
@@ -466,40 +466,40 @@
     <t>PROC-2025-0006</t>
   </si>
   <si>
-    <t>PROC-2024-0007</t>
+    <t>PROC-2023-0007</t>
   </si>
   <si>
     <t>PROC-2023-0008</t>
   </si>
   <si>
-    <t>PROC-2024-0009</t>
+    <t>PROC-2023-0009</t>
   </si>
   <si>
     <t>PROC-2024-0010</t>
   </si>
   <si>
-    <t>PROC-2025-0011</t>
+    <t>PROC-2024-0011</t>
   </si>
   <si>
     <t>PROC-2023-0012</t>
   </si>
   <si>
-    <t>PROC-2024-0013</t>
-  </si>
-  <si>
-    <t>PROC-2024-0014</t>
-  </si>
-  <si>
-    <t>PROC-2023-0015</t>
-  </si>
-  <si>
-    <t>PROC-2024-0016</t>
+    <t>PROC-2025-0013</t>
+  </si>
+  <si>
+    <t>PROC-2023-0014</t>
+  </si>
+  <si>
+    <t>PROC-2025-0015</t>
+  </si>
+  <si>
+    <t>PROC-2025-0016</t>
   </si>
   <si>
     <t>PROC-2025-0017</t>
   </si>
   <si>
-    <t>PROC-2023-0018</t>
+    <t>PROC-2025-0018</t>
   </si>
   <si>
     <t>PROC-2023-0019</t>
@@ -508,391 +508,400 @@
     <t>PROC-2024-0020</t>
   </si>
   <si>
-    <t>PROC-2024-0021</t>
-  </si>
-  <si>
-    <t>PROC-2023-0022</t>
-  </si>
-  <si>
-    <t>PROC-2023-0023</t>
-  </si>
-  <si>
-    <t>PROC-2023-0024</t>
-  </si>
-  <si>
-    <t>PROC-2025-0025</t>
-  </si>
-  <si>
-    <t>PROC-2023-0026</t>
-  </si>
-  <si>
-    <t>PROC-2023-0027</t>
+    <t>PROC-2023-0021</t>
+  </si>
+  <si>
+    <t>PROC-2025-0022</t>
+  </si>
+  <si>
+    <t>PROC-2025-0023</t>
+  </si>
+  <si>
+    <t>PROC-2025-0024</t>
+  </si>
+  <si>
+    <t>PROC-2024-0025</t>
+  </si>
+  <si>
+    <t>PROC-2024-0026</t>
+  </si>
+  <si>
+    <t>PROC-2024-0027</t>
   </si>
   <si>
     <t>PROC-2024-0028</t>
   </si>
   <si>
-    <t>PROC-2024-0029</t>
-  </si>
-  <si>
-    <t>PROC-2023-0030</t>
-  </si>
-  <si>
-    <t>PROC-2023-0031</t>
-  </si>
-  <si>
-    <t>PROC-2024-0032</t>
-  </si>
-  <si>
-    <t>PROC-2023-0033</t>
-  </si>
-  <si>
-    <t>PROC-2024-0034</t>
+    <t>PROC-2023-0029</t>
+  </si>
+  <si>
+    <t>PROC-2024-0030</t>
+  </si>
+  <si>
+    <t>PROC-2025-0031</t>
+  </si>
+  <si>
+    <t>PROC-2023-0032</t>
+  </si>
+  <si>
+    <t>PROC-2025-0033</t>
+  </si>
+  <si>
+    <t>PROC-2025-0034</t>
   </si>
   <si>
     <t>PROC-2025-0035</t>
   </si>
   <si>
-    <t>PROC-2023-0036</t>
-  </si>
-  <si>
-    <t>PROC-2025-0037</t>
+    <t>PROC-2024-0036</t>
+  </si>
+  <si>
+    <t>PROC-2024-0037</t>
   </si>
   <si>
     <t>PROC-2023-0038</t>
   </si>
   <si>
-    <t>PROC-2025-0039</t>
-  </si>
-  <si>
-    <t>PROC-2024-0040</t>
-  </si>
-  <si>
-    <t>PROC-2025-0041</t>
-  </si>
-  <si>
-    <t>PROC-2024-0042</t>
+    <t>PROC-2023-0039</t>
+  </si>
+  <si>
+    <t>PROC-2025-0040</t>
+  </si>
+  <si>
+    <t>PROC-2023-0041</t>
+  </si>
+  <si>
+    <t>PROC-2023-0042</t>
   </si>
   <si>
     <t>PROC-2024-0043</t>
   </si>
   <si>
-    <t>PROC-2024-0044</t>
+    <t>PROC-2023-0044</t>
   </si>
   <si>
     <t>PROC-2025-0045</t>
   </si>
   <si>
-    <t>PROC-2024-0046</t>
+    <t>PROC-2023-0046</t>
   </si>
   <si>
     <t>PROC-2025-0047</t>
   </si>
   <si>
-    <t>PROC-2023-0048</t>
+    <t>PROC-2025-0048</t>
   </si>
   <si>
     <t>PROC-2023-0049</t>
   </si>
   <si>
-    <t>PROC-2024-0050</t>
-  </si>
-  <si>
-    <t>2023-07-14</t>
-  </si>
-  <si>
-    <t>2025-04-20</t>
-  </si>
-  <si>
-    <t>2025-03-16</t>
-  </si>
-  <si>
-    <t>2024-09-24</t>
-  </si>
-  <si>
-    <t>2025-08-08</t>
-  </si>
-  <si>
-    <t>2023-05-24</t>
-  </si>
-  <si>
-    <t>2025-01-31</t>
-  </si>
-  <si>
-    <t>2025-01-28</t>
-  </si>
-  <si>
-    <t>2023-02-15</t>
-  </si>
-  <si>
-    <t>2023-09-30</t>
-  </si>
-  <si>
-    <t>2025-03-26</t>
-  </si>
-  <si>
-    <t>2024-08-13</t>
-  </si>
-  <si>
-    <t>2025-04-24</t>
-  </si>
-  <si>
-    <t>2025-10-09</t>
+    <t>PROC-2025-0050</t>
+  </si>
+  <si>
+    <t>2023-01-19</t>
+  </si>
+  <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
+    <t>2024-10-05</t>
+  </si>
+  <si>
+    <t>2023-06-24</t>
+  </si>
+  <si>
+    <t>2024-09-19</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>2023-06-15</t>
+  </si>
+  <si>
+    <t>2023-09-15</t>
+  </si>
+  <si>
+    <t>2023-04-09</t>
+  </si>
+  <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
+    <t>2025-09-18</t>
+  </si>
+  <si>
+    <t>2023-12-14</t>
+  </si>
+  <si>
+    <t>2024-10-13</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>2024-07-31</t>
+  </si>
+  <si>
+    <t>2023-03-23</t>
+  </si>
+  <si>
+    <t>2024-03-24</t>
+  </si>
+  <si>
+    <t>2024-05-10</t>
+  </si>
+  <si>
+    <t>2025-04-11</t>
+  </si>
+  <si>
+    <t>2025-09-01</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>2025-02-14</t>
+  </si>
+  <si>
+    <t>2024-01-08</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>2023-03-25</t>
+  </si>
+  <si>
+    <t>2023-06-09</t>
+  </si>
+  <si>
+    <t>2025-10-24</t>
+  </si>
+  <si>
+    <t>2024-07-22</t>
+  </si>
+  <si>
+    <t>2023-01-06</t>
+  </si>
+  <si>
+    <t>2024-10-07</t>
+  </si>
+  <si>
+    <t>2023-08-10</t>
+  </si>
+  <si>
+    <t>2023-11-25</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>2024-05-28</t>
+  </si>
+  <si>
+    <t>2024-02-01</t>
+  </si>
+  <si>
+    <t>2025-08-07</t>
+  </si>
+  <si>
+    <t>2024-01-21</t>
+  </si>
+  <si>
+    <t>2024-09-17</t>
+  </si>
+  <si>
+    <t>2025-03-21</t>
+  </si>
+  <si>
+    <t>2024-09-28</t>
+  </si>
+  <si>
+    <t>2025-12-21</t>
+  </si>
+  <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>2024-09-04</t>
+  </si>
+  <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
+    <t>2024-06-21</t>
+  </si>
+  <si>
+    <t>2024-08-19</t>
+  </si>
+  <si>
+    <t>2023-12-17</t>
+  </si>
+  <si>
+    <t>2024-01-24</t>
+  </si>
+  <si>
+    <t>2024-03-08</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
+    <t>2025-10-16</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>2023-06-27</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>2023-01-21</t>
+  </si>
+  <si>
+    <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>2024-09-12</t>
+  </si>
+  <si>
+    <t>2024-04-17</t>
   </si>
   <si>
     <t>2023-02-06</t>
   </si>
   <si>
-    <t>2023-01-29</t>
-  </si>
-  <si>
-    <t>2024-06-01</t>
-  </si>
-  <si>
-    <t>2024-07-28</t>
-  </si>
-  <si>
-    <t>2023-03-29</t>
-  </si>
-  <si>
-    <t>2025-08-25</t>
-  </si>
-  <si>
-    <t>2023-11-24</t>
-  </si>
-  <si>
-    <t>2024-05-16</t>
-  </si>
-  <si>
-    <t>2024-09-15</t>
-  </si>
-  <si>
-    <t>2023-02-21</t>
-  </si>
-  <si>
-    <t>2023-11-22</t>
-  </si>
-  <si>
-    <t>2024-01-28</t>
-  </si>
-  <si>
-    <t>2023-09-25</t>
-  </si>
-  <si>
-    <t>2025-10-20</t>
-  </si>
-  <si>
-    <t>2023-11-28</t>
-  </si>
-  <si>
-    <t>2023-07-04</t>
-  </si>
-  <si>
-    <t>2023-10-31</t>
-  </si>
-  <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
-    <t>2024-08-08</t>
-  </si>
-  <si>
-    <t>2024-05-09</t>
-  </si>
-  <si>
-    <t>2023-09-19</t>
-  </si>
-  <si>
-    <t>2023-12-11</t>
-  </si>
-  <si>
-    <t>2023-09-28</t>
-  </si>
-  <si>
-    <t>2025-12-21</t>
-  </si>
-  <si>
-    <t>2025-12-24</t>
-  </si>
-  <si>
-    <t>2024-08-15</t>
-  </si>
-  <si>
-    <t>2025-12-05</t>
-  </si>
-  <si>
-    <t>2024-04-27</t>
-  </si>
-  <si>
-    <t>2023-12-03</t>
-  </si>
-  <si>
-    <t>2025-07-27</t>
-  </si>
-  <si>
-    <t>2023-10-14</t>
-  </si>
-  <si>
-    <t>2023-12-26</t>
-  </si>
-  <si>
-    <t>2023-11-27</t>
-  </si>
-  <si>
-    <t>2025-11-22</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <t>2025-01-10</t>
-  </si>
-  <si>
-    <t>2024-03-19</t>
-  </si>
-  <si>
-    <t>2023-08-12</t>
-  </si>
-  <si>
-    <t>2023-06-08</t>
-  </si>
-  <si>
-    <t>2023-03-13</t>
-  </si>
-  <si>
-    <t>2025-09-11</t>
-  </si>
-  <si>
-    <t>2025-04-12</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>2024-12-15</t>
-  </si>
-  <si>
-    <t>2025-03-24</t>
-  </si>
-  <si>
-    <t>2025-05-07</t>
-  </si>
-  <si>
-    <t>2024-12-12</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>2025-04-28</t>
-  </si>
-  <si>
-    <t>2023-02-05</t>
-  </si>
-  <si>
-    <t>2023-09-02</t>
-  </si>
-  <si>
-    <t>2023-04-14</t>
-  </si>
-  <si>
-    <t>2023-12-25</t>
-  </si>
-  <si>
-    <t>2025-12-16</t>
-  </si>
-  <si>
-    <t>2024-09-21</t>
-  </si>
-  <si>
-    <t>2024-04-15</t>
-  </si>
-  <si>
-    <t>2023-06-27</t>
-  </si>
-  <si>
-    <t>2024-04-19</t>
-  </si>
-  <si>
-    <t>2023-03-08</t>
-  </si>
-  <si>
-    <t>2024-06-05</t>
-  </si>
-  <si>
-    <t>2024-02-20</t>
-  </si>
-  <si>
-    <t>2025-01-27</t>
-  </si>
-  <si>
-    <t>2025-02-08</t>
-  </si>
-  <si>
-    <t>2024-01-08</t>
-  </si>
-  <si>
-    <t>2024-09-19</t>
-  </si>
-  <si>
-    <t>2024-11-17</t>
-  </si>
-  <si>
-    <t>2025-09-17</t>
-  </si>
-  <si>
-    <t>2023-06-23</t>
-  </si>
-  <si>
-    <t>2024-01-02</t>
-  </si>
-  <si>
-    <t>2025-11-08</t>
+    <t>2023-05-18</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>2025-01-06</t>
+  </si>
+  <si>
+    <t>2024-05-24</t>
+  </si>
+  <si>
+    <t>2024-07-15</t>
+  </si>
+  <si>
+    <t>2024-02-21</t>
+  </si>
+  <si>
+    <t>2023-04-16</t>
+  </si>
+  <si>
+    <t>2023-01-03</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2024-04-20</t>
+  </si>
+  <si>
+    <t>2025-06-20</t>
+  </si>
+  <si>
+    <t>2024-01-17</t>
+  </si>
+  <si>
+    <t>2024-05-30</t>
+  </si>
+  <si>
+    <t>2023-04-22</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>2023-06-18</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
   </si>
   <si>
     <t>2025-11-10</t>
   </si>
   <si>
-    <t>2023-01-08</t>
-  </si>
-  <si>
-    <t>2025-07-24</t>
-  </si>
-  <si>
-    <t>2023-09-07</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>2024-09-03</t>
-  </si>
-  <si>
-    <t>2024-01-16</t>
-  </si>
-  <si>
-    <t>2024-07-22</t>
-  </si>
-  <si>
-    <t>2023-02-14</t>
-  </si>
-  <si>
-    <t>2024-05-03</t>
-  </si>
-  <si>
-    <t>2023-03-28</t>
-  </si>
-  <si>
-    <t>2024-08-03</t>
-  </si>
-  <si>
-    <t>2023-11-20</t>
+    <t>2025-01-05</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>2023-02-28</t>
+  </si>
+  <si>
+    <t>2024-08-28</t>
+  </si>
+  <si>
+    <t>2023-04-02</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>2024-12-14</t>
+  </si>
+  <si>
+    <t>2024-02-17</t>
+  </si>
+  <si>
+    <t>2024-09-22</t>
+  </si>
+  <si>
+    <t>2025-03-14</t>
+  </si>
+  <si>
+    <t>2023-07-24</t>
+  </si>
+  <si>
+    <t>2025-10-07</t>
+  </si>
+  <si>
+    <t>2023-04-24</t>
+  </si>
+  <si>
+    <t>2023-11-04</t>
+  </si>
+  <si>
+    <t>2023-01-27</t>
+  </si>
+  <si>
+    <t>2023-03-24</t>
+  </si>
+  <si>
+    <t>2024-03-18</t>
+  </si>
+  <si>
+    <t>2025-09-04</t>
+  </si>
+  <si>
+    <t>2023-11-03</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1347,10 @@
         <v>245</v>
       </c>
       <c r="M2" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1373,16 +1385,10 @@
         <v>195</v>
       </c>
       <c r="K3" t="s">
-        <v>243</v>
-      </c>
-      <c r="L3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M3" t="s">
-        <v>243</v>
-      </c>
-      <c r="N3" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1417,10 +1423,7 @@
         <v>196</v>
       </c>
       <c r="K4" t="s">
-        <v>243</v>
-      </c>
-      <c r="L4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M4" t="s">
         <v>244</v>
@@ -1458,7 +1461,10 @@
         <v>197</v>
       </c>
       <c r="K5" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L5" t="s">
+        <v>246</v>
       </c>
       <c r="M5" t="s">
         <v>244</v>
@@ -1499,13 +1505,13 @@
         <v>243</v>
       </c>
       <c r="L6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M6" t="s">
         <v>243</v>
       </c>
       <c r="N6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1540,16 +1546,10 @@
         <v>199</v>
       </c>
       <c r="K7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M7" t="s">
-        <v>243</v>
-      </c>
-      <c r="N7" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1584,10 +1584,16 @@
         <v>200</v>
       </c>
       <c r="K8" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L8" t="s">
+        <v>248</v>
       </c>
       <c r="M8" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N8" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1625,10 +1631,13 @@
         <v>243</v>
       </c>
       <c r="L9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M9" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N9" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1704,7 +1713,7 @@
         <v>243</v>
       </c>
       <c r="L11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M11" t="s">
         <v>244</v>
@@ -1783,7 +1792,7 @@
         <v>243</v>
       </c>
       <c r="L13" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="M13" t="s">
         <v>244</v>
@@ -1821,7 +1830,10 @@
         <v>206</v>
       </c>
       <c r="K14" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L14" t="s">
+        <v>251</v>
       </c>
       <c r="M14" t="s">
         <v>244</v>
@@ -1859,10 +1871,16 @@
         <v>207</v>
       </c>
       <c r="K15" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L15" t="s">
+        <v>252</v>
       </c>
       <c r="M15" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N15" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1897,10 +1915,16 @@
         <v>208</v>
       </c>
       <c r="K16" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L16" t="s">
+        <v>253</v>
       </c>
       <c r="M16" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N16" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1938,13 +1962,10 @@
         <v>243</v>
       </c>
       <c r="L17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M17" t="s">
-        <v>243</v>
-      </c>
-      <c r="N17" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2017,10 +2038,7 @@
         <v>211</v>
       </c>
       <c r="K19" t="s">
-        <v>243</v>
-      </c>
-      <c r="L19" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="M19" t="s">
         <v>244</v>
@@ -2105,7 +2123,7 @@
         <v>243</v>
       </c>
       <c r="L21" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="M21" t="s">
         <v>243</v>
@@ -2146,10 +2164,16 @@
         <v>214</v>
       </c>
       <c r="K22" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L22" t="s">
+        <v>256</v>
       </c>
       <c r="M22" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N22" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2222,16 +2246,10 @@
         <v>216</v>
       </c>
       <c r="K24" t="s">
-        <v>243</v>
-      </c>
-      <c r="L24" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s">
-        <v>243</v>
-      </c>
-      <c r="N24" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2266,7 +2284,10 @@
         <v>217</v>
       </c>
       <c r="K25" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L25" t="s">
+        <v>257</v>
       </c>
       <c r="M25" t="s">
         <v>244</v>
@@ -2392,16 +2413,10 @@
         <v>220</v>
       </c>
       <c r="K28" t="s">
-        <v>243</v>
-      </c>
-      <c r="L28" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="M28" t="s">
-        <v>243</v>
-      </c>
-      <c r="N28" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2474,10 +2489,16 @@
         <v>222</v>
       </c>
       <c r="K30" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L30" t="s">
+        <v>196</v>
       </c>
       <c r="M30" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N30" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2518,7 +2539,10 @@
         <v>260</v>
       </c>
       <c r="M31" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N31" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2550,7 +2574,7 @@
         <v>174</v>
       </c>
       <c r="J32" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="K32" t="s">
         <v>243</v>
@@ -2591,13 +2615,19 @@
         <v>175</v>
       </c>
       <c r="J33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K33" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L33" t="s">
+        <v>262</v>
       </c>
       <c r="M33" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N33" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2629,19 +2659,13 @@
         <v>176</v>
       </c>
       <c r="J34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K34" t="s">
-        <v>243</v>
-      </c>
-      <c r="L34" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="M34" t="s">
-        <v>243</v>
-      </c>
-      <c r="N34" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2673,7 +2697,7 @@
         <v>177</v>
       </c>
       <c r="J35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K35" t="s">
         <v>243</v>
@@ -2682,7 +2706,10 @@
         <v>263</v>
       </c>
       <c r="M35" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N35" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2714,7 +2741,7 @@
         <v>178</v>
       </c>
       <c r="J36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K36" t="s">
         <v>243</v>
@@ -2723,10 +2750,7 @@
         <v>264</v>
       </c>
       <c r="M36" t="s">
-        <v>243</v>
-      </c>
-      <c r="N36" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2758,7 +2782,7 @@
         <v>179</v>
       </c>
       <c r="J37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K37" t="s">
         <v>243</v>
@@ -2770,7 +2794,7 @@
         <v>243</v>
       </c>
       <c r="N37" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2802,13 +2826,19 @@
         <v>180</v>
       </c>
       <c r="J38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K38" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L38" t="s">
+        <v>266</v>
       </c>
       <c r="M38" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N38" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2840,19 +2870,19 @@
         <v>181</v>
       </c>
       <c r="J39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K39" t="s">
         <v>243</v>
       </c>
       <c r="L39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M39" t="s">
         <v>243</v>
       </c>
       <c r="N39" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2884,19 +2914,16 @@
         <v>182</v>
       </c>
       <c r="J40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K40" t="s">
         <v>243</v>
       </c>
       <c r="L40" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M40" t="s">
-        <v>243</v>
-      </c>
-      <c r="N40" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2928,16 +2955,19 @@
         <v>183</v>
       </c>
       <c r="J41" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="K41" t="s">
         <v>243</v>
       </c>
       <c r="L41" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="M41" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N41" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2975,10 +3005,13 @@
         <v>243</v>
       </c>
       <c r="L42" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M42" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N42" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3051,16 +3084,10 @@
         <v>235</v>
       </c>
       <c r="K44" t="s">
-        <v>243</v>
-      </c>
-      <c r="L44" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="M44" t="s">
-        <v>243</v>
-      </c>
-      <c r="N44" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3098,13 +3125,13 @@
         <v>243</v>
       </c>
       <c r="L45" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M45" t="s">
         <v>243</v>
       </c>
       <c r="N45" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3142,13 +3169,10 @@
         <v>243</v>
       </c>
       <c r="L46" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M46" t="s">
-        <v>243</v>
-      </c>
-      <c r="N46" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3183,16 +3207,10 @@
         <v>238</v>
       </c>
       <c r="K47" t="s">
-        <v>243</v>
-      </c>
-      <c r="L47" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="M47" t="s">
-        <v>243</v>
-      </c>
-      <c r="N47" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3227,10 +3245,7 @@
         <v>239</v>
       </c>
       <c r="K48" t="s">
-        <v>243</v>
-      </c>
-      <c r="L48" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="M48" t="s">
         <v>244</v>
@@ -3268,10 +3283,7 @@
         <v>240</v>
       </c>
       <c r="K49" t="s">
-        <v>243</v>
-      </c>
-      <c r="L49" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="M49" t="s">
         <v>244</v>
@@ -3350,13 +3362,13 @@
         <v>243</v>
       </c>
       <c r="L51" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M51" t="s">
         <v>243</v>
       </c>
       <c r="N51" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="302">
   <si>
     <t>Endereço de e-mail</t>
   </si>
@@ -451,22 +451,22 @@
     <t>PROC-2023-0001</t>
   </si>
   <si>
-    <t>PROC-2023-0002</t>
-  </si>
-  <si>
-    <t>PROC-2024-0003</t>
-  </si>
-  <si>
-    <t>PROC-2025-0004</t>
-  </si>
-  <si>
-    <t>PROC-2023-0005</t>
-  </si>
-  <si>
-    <t>PROC-2025-0006</t>
-  </si>
-  <si>
-    <t>PROC-2023-0007</t>
+    <t>PROC-2025-0002</t>
+  </si>
+  <si>
+    <t>PROC-2025-0003</t>
+  </si>
+  <si>
+    <t>PROC-2023-0004</t>
+  </si>
+  <si>
+    <t>PROC-2024-0005</t>
+  </si>
+  <si>
+    <t>PROC-2024-0006</t>
+  </si>
+  <si>
+    <t>PROC-2024-0007</t>
   </si>
   <si>
     <t>PROC-2023-0008</t>
@@ -475,433 +475,451 @@
     <t>PROC-2023-0009</t>
   </si>
   <si>
-    <t>PROC-2024-0010</t>
-  </si>
-  <si>
-    <t>PROC-2024-0011</t>
-  </si>
-  <si>
-    <t>PROC-2023-0012</t>
-  </si>
-  <si>
-    <t>PROC-2025-0013</t>
-  </si>
-  <si>
-    <t>PROC-2023-0014</t>
-  </si>
-  <si>
-    <t>PROC-2025-0015</t>
-  </si>
-  <si>
-    <t>PROC-2025-0016</t>
-  </si>
-  <si>
-    <t>PROC-2025-0017</t>
+    <t>PROC-2023-0010</t>
+  </si>
+  <si>
+    <t>PROC-2023-0011</t>
+  </si>
+  <si>
+    <t>PROC-2025-0012</t>
+  </si>
+  <si>
+    <t>PROC-2023-0013</t>
+  </si>
+  <si>
+    <t>PROC-2025-0014</t>
+  </si>
+  <si>
+    <t>PROC-2023-0015</t>
+  </si>
+  <si>
+    <t>PROC-2024-0016</t>
+  </si>
+  <si>
+    <t>PROC-2023-0017</t>
   </si>
   <si>
     <t>PROC-2025-0018</t>
   </si>
   <si>
-    <t>PROC-2023-0019</t>
-  </si>
-  <si>
-    <t>PROC-2024-0020</t>
-  </si>
-  <si>
-    <t>PROC-2023-0021</t>
-  </si>
-  <si>
-    <t>PROC-2025-0022</t>
+    <t>PROC-2025-0019</t>
+  </si>
+  <si>
+    <t>PROC-2023-0020</t>
+  </si>
+  <si>
+    <t>PROC-2025-0021</t>
+  </si>
+  <si>
+    <t>PROC-2023-0022</t>
   </si>
   <si>
     <t>PROC-2025-0023</t>
   </si>
   <si>
-    <t>PROC-2025-0024</t>
-  </si>
-  <si>
-    <t>PROC-2024-0025</t>
+    <t>PROC-2024-0024</t>
+  </si>
+  <si>
+    <t>PROC-2023-0025</t>
   </si>
   <si>
     <t>PROC-2024-0026</t>
   </si>
   <si>
-    <t>PROC-2024-0027</t>
-  </si>
-  <si>
-    <t>PROC-2024-0028</t>
-  </si>
-  <si>
-    <t>PROC-2023-0029</t>
-  </si>
-  <si>
-    <t>PROC-2024-0030</t>
-  </si>
-  <si>
-    <t>PROC-2025-0031</t>
-  </si>
-  <si>
-    <t>PROC-2023-0032</t>
-  </si>
-  <si>
-    <t>PROC-2025-0033</t>
-  </si>
-  <si>
-    <t>PROC-2025-0034</t>
+    <t>PROC-2023-0027</t>
+  </si>
+  <si>
+    <t>PROC-2025-0028</t>
+  </si>
+  <si>
+    <t>PROC-2024-0029</t>
+  </si>
+  <si>
+    <t>PROC-2023-0030</t>
+  </si>
+  <si>
+    <t>PROC-2024-0031</t>
+  </si>
+  <si>
+    <t>PROC-2025-0032</t>
+  </si>
+  <si>
+    <t>PROC-2024-0033</t>
+  </si>
+  <si>
+    <t>PROC-2023-0034</t>
   </si>
   <si>
     <t>PROC-2025-0035</t>
   </si>
   <si>
-    <t>PROC-2024-0036</t>
-  </si>
-  <si>
-    <t>PROC-2024-0037</t>
+    <t>PROC-2023-0036</t>
+  </si>
+  <si>
+    <t>PROC-2023-0037</t>
   </si>
   <si>
     <t>PROC-2023-0038</t>
   </si>
   <si>
-    <t>PROC-2023-0039</t>
-  </si>
-  <si>
-    <t>PROC-2025-0040</t>
-  </si>
-  <si>
-    <t>PROC-2023-0041</t>
-  </si>
-  <si>
-    <t>PROC-2023-0042</t>
-  </si>
-  <si>
-    <t>PROC-2024-0043</t>
-  </si>
-  <si>
-    <t>PROC-2023-0044</t>
-  </si>
-  <si>
-    <t>PROC-2025-0045</t>
+    <t>PROC-2025-0039</t>
+  </si>
+  <si>
+    <t>PROC-2023-0040</t>
+  </si>
+  <si>
+    <t>PROC-2025-0041</t>
+  </si>
+  <si>
+    <t>PROC-2025-0042</t>
+  </si>
+  <si>
+    <t>PROC-2023-0043</t>
+  </si>
+  <si>
+    <t>PROC-2025-0044</t>
+  </si>
+  <si>
+    <t>PROC-2023-0045</t>
   </si>
   <si>
     <t>PROC-2023-0046</t>
   </si>
   <si>
-    <t>PROC-2025-0047</t>
+    <t>PROC-2024-0047</t>
   </si>
   <si>
     <t>PROC-2025-0048</t>
   </si>
   <si>
-    <t>PROC-2023-0049</t>
-  </si>
-  <si>
-    <t>PROC-2025-0050</t>
-  </si>
-  <si>
-    <t>2023-01-19</t>
+    <t>PROC-2025-0049</t>
+  </si>
+  <si>
+    <t>PROC-2024-0050</t>
+  </si>
+  <si>
+    <t>2024-12-02</t>
+  </si>
+  <si>
+    <t>2023-12-07</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>2024-07-26</t>
+  </si>
+  <si>
+    <t>2025-08-23</t>
+  </si>
+  <si>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>2025-03-26</t>
+  </si>
+  <si>
+    <t>2023-03-06</t>
+  </si>
+  <si>
+    <t>2025-10-07</t>
+  </si>
+  <si>
+    <t>2024-07-05</t>
+  </si>
+  <si>
+    <t>2023-11-02</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>2025-09-24</t>
+  </si>
+  <si>
+    <t>2024-09-05</t>
+  </si>
+  <si>
+    <t>2025-11-02</t>
+  </si>
+  <si>
+    <t>2025-09-12</t>
+  </si>
+  <si>
+    <t>2024-02-22</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>2024-10-09</t>
+  </si>
+  <si>
+    <t>2023-12-18</t>
+  </si>
+  <si>
+    <t>2024-01-15</t>
+  </si>
+  <si>
+    <t>2023-09-06</t>
+  </si>
+  <si>
+    <t>2025-02-08</t>
+  </si>
+  <si>
+    <t>2023-03-11</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>2023-05-18</t>
+  </si>
+  <si>
+    <t>2023-06-23</t>
+  </si>
+  <si>
+    <t>2025-09-06</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2023-10-06</t>
+  </si>
+  <si>
+    <t>2023-09-15</t>
+  </si>
+  <si>
+    <t>2024-03-10</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>2024-03-15</t>
+  </si>
+  <si>
+    <t>2023-04-14</t>
+  </si>
+  <si>
+    <t>2024-10-01</t>
+  </si>
+  <si>
+    <t>2023-11-18</t>
+  </si>
+  <si>
+    <t>2023-07-20</t>
+  </si>
+  <si>
+    <t>2025-12-28</t>
+  </si>
+  <si>
+    <t>2023-06-13</t>
+  </si>
+  <si>
+    <t>2023-06-28</t>
+  </si>
+  <si>
+    <t>2024-01-02</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>2023-12-17</t>
+  </si>
+  <si>
+    <t>2025-09-26</t>
+  </si>
+  <si>
+    <t>2024-08-24</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>2025-10-08</t>
+  </si>
+  <si>
+    <t>2025-01-12</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>2024-04-06</t>
+  </si>
+  <si>
+    <t>2025-05-06</t>
+  </si>
+  <si>
+    <t>2024-08-15</t>
+  </si>
+  <si>
+    <t>2023-09-29</t>
+  </si>
+  <si>
+    <t>2023-12-05</t>
+  </si>
+  <si>
+    <t>2024-02-11</t>
+  </si>
+  <si>
+    <t>2023-08-08</t>
+  </si>
+  <si>
+    <t>2024-06-26</t>
+  </si>
+  <si>
+    <t>2024-10-19</t>
+  </si>
+  <si>
+    <t>2024-03-01</t>
+  </si>
+  <si>
+    <t>2025-10-16</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>2024-09-26</t>
+  </si>
+  <si>
+    <t>2023-09-10</t>
+  </si>
+  <si>
+    <t>2023-01-18</t>
+  </si>
+  <si>
+    <t>2024-12-07</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>2024-01-04</t>
+  </si>
+  <si>
+    <t>2023-03-28</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>2025-06-01</t>
+  </si>
+  <si>
+    <t>2025-05-27</t>
+  </si>
+  <si>
+    <t>2024-03-14</t>
+  </si>
+  <si>
+    <t>2025-10-23</t>
+  </si>
+  <si>
+    <t>2024-11-24</t>
+  </si>
+  <si>
+    <t>2024-05-11</t>
+  </si>
+  <si>
+    <t>2023-03-08</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
   </si>
   <si>
     <t>2023-11-20</t>
   </si>
   <si>
-    <t>2024-10-05</t>
-  </si>
-  <si>
-    <t>2023-06-24</t>
-  </si>
-  <si>
-    <t>2024-09-19</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>2023-06-15</t>
-  </si>
-  <si>
-    <t>2023-09-15</t>
-  </si>
-  <si>
-    <t>2023-04-09</t>
-  </si>
-  <si>
-    <t>2023-05-31</t>
-  </si>
-  <si>
-    <t>2025-09-18</t>
-  </si>
-  <si>
-    <t>2023-12-14</t>
-  </si>
-  <si>
-    <t>2024-10-13</t>
+    <t>2024-12-09</t>
+  </si>
+  <si>
+    <t>2025-06-22</t>
+  </si>
+  <si>
+    <t>2024-08-07</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>2025-10-19</t>
+  </si>
+  <si>
+    <t>2024-12-01</t>
+  </si>
+  <si>
+    <t>2024-05-21</t>
+  </si>
+  <si>
+    <t>2023-07-26</t>
+  </si>
+  <si>
+    <t>2023-06-04</t>
+  </si>
+  <si>
+    <t>2025-07-05</t>
+  </si>
+  <si>
+    <t>2023-12-19</t>
+  </si>
+  <si>
+    <t>2025-10-12</t>
+  </si>
+  <si>
+    <t>2024-07-17</t>
   </si>
   <si>
     <t>2024-11-18</t>
   </si>
   <si>
-    <t>2024-07-31</t>
-  </si>
-  <si>
-    <t>2023-03-23</t>
-  </si>
-  <si>
-    <t>2024-03-24</t>
-  </si>
-  <si>
-    <t>2024-05-10</t>
-  </si>
-  <si>
-    <t>2025-04-11</t>
-  </si>
-  <si>
-    <t>2025-09-01</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>2025-02-14</t>
-  </si>
-  <si>
-    <t>2024-01-08</t>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
-    <t>2023-03-25</t>
-  </si>
-  <si>
-    <t>2023-06-09</t>
-  </si>
-  <si>
-    <t>2025-10-24</t>
-  </si>
-  <si>
-    <t>2024-07-22</t>
-  </si>
-  <si>
-    <t>2023-01-06</t>
-  </si>
-  <si>
-    <t>2024-10-07</t>
-  </si>
-  <si>
-    <t>2023-08-10</t>
-  </si>
-  <si>
-    <t>2023-11-25</t>
-  </si>
-  <si>
-    <t>2024-07-13</t>
-  </si>
-  <si>
-    <t>2024-05-28</t>
-  </si>
-  <si>
-    <t>2024-02-01</t>
-  </si>
-  <si>
-    <t>2025-08-07</t>
-  </si>
-  <si>
-    <t>2024-01-21</t>
-  </si>
-  <si>
-    <t>2024-09-17</t>
-  </si>
-  <si>
-    <t>2025-03-21</t>
-  </si>
-  <si>
-    <t>2024-09-28</t>
-  </si>
-  <si>
-    <t>2025-12-21</t>
-  </si>
-  <si>
-    <t>2023-11-08</t>
-  </si>
-  <si>
-    <t>2024-09-04</t>
-  </si>
-  <si>
-    <t>2024-04-15</t>
-  </si>
-  <si>
-    <t>2024-06-21</t>
-  </si>
-  <si>
-    <t>2024-08-19</t>
-  </si>
-  <si>
-    <t>2023-12-17</t>
-  </si>
-  <si>
-    <t>2024-01-24</t>
-  </si>
-  <si>
-    <t>2024-03-08</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <t>2023-06-01</t>
-  </si>
-  <si>
-    <t>2025-10-16</t>
-  </si>
-  <si>
-    <t>2025-11-06</t>
-  </si>
-  <si>
-    <t>2023-06-27</t>
-  </si>
-  <si>
-    <t>2025-04-09</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>2025-09-05</t>
-  </si>
-  <si>
-    <t>2023-01-21</t>
-  </si>
-  <si>
-    <t>2025-12-04</t>
-  </si>
-  <si>
-    <t>2024-09-12</t>
-  </si>
-  <si>
-    <t>2024-04-17</t>
-  </si>
-  <si>
-    <t>2023-02-06</t>
-  </si>
-  <si>
-    <t>2023-05-18</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>2025-01-06</t>
-  </si>
-  <si>
-    <t>2024-05-24</t>
-  </si>
-  <si>
-    <t>2024-07-15</t>
-  </si>
-  <si>
-    <t>2024-02-21</t>
-  </si>
-  <si>
-    <t>2023-04-16</t>
-  </si>
-  <si>
-    <t>2023-01-03</t>
-  </si>
-  <si>
-    <t>2025-11-13</t>
-  </si>
-  <si>
-    <t>2025-09-15</t>
-  </si>
-  <si>
-    <t>2024-04-20</t>
-  </si>
-  <si>
-    <t>2025-06-20</t>
-  </si>
-  <si>
-    <t>2024-01-17</t>
-  </si>
-  <si>
-    <t>2024-05-30</t>
-  </si>
-  <si>
-    <t>2023-04-22</t>
-  </si>
-  <si>
-    <t>2023-05-11</t>
+    <t>2024-06-23</t>
+  </si>
+  <si>
+    <t>2024-06-05</t>
+  </si>
+  <si>
+    <t>2023-05-05</t>
+  </si>
+  <si>
+    <t>2023-03-07</t>
   </si>
   <si>
     <t>2023-06-18</t>
   </si>
   <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
-    <t>2025-11-10</t>
-  </si>
-  <si>
-    <t>2025-01-05</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>2024-01-13</t>
-  </si>
-  <si>
-    <t>2023-02-28</t>
-  </si>
-  <si>
-    <t>2024-08-28</t>
-  </si>
-  <si>
-    <t>2023-04-02</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>2024-12-14</t>
-  </si>
-  <si>
-    <t>2024-02-17</t>
-  </si>
-  <si>
-    <t>2024-09-22</t>
-  </si>
-  <si>
-    <t>2025-03-14</t>
-  </si>
-  <si>
-    <t>2023-07-24</t>
-  </si>
-  <si>
-    <t>2025-10-07</t>
-  </si>
-  <si>
-    <t>2023-04-24</t>
-  </si>
-  <si>
-    <t>2023-11-04</t>
-  </si>
-  <si>
-    <t>2023-01-27</t>
-  </si>
-  <si>
-    <t>2023-03-24</t>
-  </si>
-  <si>
-    <t>2024-03-18</t>
-  </si>
-  <si>
-    <t>2025-09-04</t>
-  </si>
-  <si>
-    <t>2023-11-03</t>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>2024-02-27</t>
+  </si>
+  <si>
+    <t>2023-04-15</t>
+  </si>
+  <si>
+    <t>2025-12-26</t>
+  </si>
+  <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
+    <t>2024-05-23</t>
   </si>
 </sst>
 </file>
@@ -1341,16 +1359,10 @@
         <v>194</v>
       </c>
       <c r="K2" t="s">
-        <v>243</v>
-      </c>
-      <c r="L2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M2" t="s">
-        <v>243</v>
-      </c>
-      <c r="N2" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1385,10 +1397,10 @@
         <v>195</v>
       </c>
       <c r="K3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1423,10 +1435,10 @@
         <v>196</v>
       </c>
       <c r="K4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1464,10 +1476,13 @@
         <v>243</v>
       </c>
       <c r="L5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M5" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N5" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1505,13 +1520,13 @@
         <v>243</v>
       </c>
       <c r="L6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M6" t="s">
         <v>243</v>
       </c>
       <c r="N6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1546,10 +1561,16 @@
         <v>199</v>
       </c>
       <c r="K7" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L7" t="s">
+        <v>246</v>
       </c>
       <c r="M7" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N7" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1584,16 +1605,10 @@
         <v>200</v>
       </c>
       <c r="K8" t="s">
-        <v>243</v>
-      </c>
-      <c r="L8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M8" t="s">
-        <v>243</v>
-      </c>
-      <c r="N8" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1631,13 +1646,10 @@
         <v>243</v>
       </c>
       <c r="L9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M9" t="s">
-        <v>243</v>
-      </c>
-      <c r="N9" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1672,10 +1684,16 @@
         <v>202</v>
       </c>
       <c r="K10" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L10" t="s">
+        <v>248</v>
       </c>
       <c r="M10" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N10" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1713,10 +1731,10 @@
         <v>243</v>
       </c>
       <c r="L11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1751,10 +1769,16 @@
         <v>204</v>
       </c>
       <c r="K12" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L12" t="s">
+        <v>250</v>
       </c>
       <c r="M12" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N12" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1792,10 +1816,13 @@
         <v>243</v>
       </c>
       <c r="L13" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="M13" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N13" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1833,10 +1860,10 @@
         <v>243</v>
       </c>
       <c r="L14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1874,13 +1901,13 @@
         <v>243</v>
       </c>
       <c r="L15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M15" t="s">
         <v>243</v>
       </c>
       <c r="N15" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1915,16 +1942,10 @@
         <v>208</v>
       </c>
       <c r="K16" t="s">
-        <v>243</v>
-      </c>
-      <c r="L16" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="M16" t="s">
-        <v>243</v>
-      </c>
-      <c r="N16" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1959,13 +1980,10 @@
         <v>209</v>
       </c>
       <c r="K17" t="s">
-        <v>243</v>
-      </c>
-      <c r="L17" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="M17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2000,10 +2018,16 @@
         <v>210</v>
       </c>
       <c r="K18" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L18" t="s">
+        <v>254</v>
       </c>
       <c r="M18" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N18" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2038,10 +2062,16 @@
         <v>211</v>
       </c>
       <c r="K19" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L19" t="s">
+        <v>255</v>
       </c>
       <c r="M19" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N19" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2079,13 +2109,10 @@
         <v>243</v>
       </c>
       <c r="L20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M20" t="s">
-        <v>243</v>
-      </c>
-      <c r="N20" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2123,13 +2150,13 @@
         <v>243</v>
       </c>
       <c r="L21" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="M21" t="s">
         <v>243</v>
       </c>
       <c r="N21" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2167,13 +2194,10 @@
         <v>243</v>
       </c>
       <c r="L22" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="M22" t="s">
-        <v>243</v>
-      </c>
-      <c r="N22" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2208,10 +2232,16 @@
         <v>215</v>
       </c>
       <c r="K23" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L23" t="s">
+        <v>258</v>
       </c>
       <c r="M23" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N23" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2246,10 +2276,16 @@
         <v>216</v>
       </c>
       <c r="K24" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L24" t="s">
+        <v>259</v>
       </c>
       <c r="M24" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N24" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2287,10 +2323,13 @@
         <v>243</v>
       </c>
       <c r="L25" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N25" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2328,13 +2367,13 @@
         <v>243</v>
       </c>
       <c r="L26" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s">
         <v>243</v>
       </c>
       <c r="N26" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2372,13 +2411,13 @@
         <v>243</v>
       </c>
       <c r="L27" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s">
         <v>243</v>
       </c>
       <c r="N27" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2413,10 +2452,10 @@
         <v>220</v>
       </c>
       <c r="K28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2451,10 +2490,16 @@
         <v>221</v>
       </c>
       <c r="K29" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L29" t="s">
+        <v>263</v>
       </c>
       <c r="M29" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N29" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2492,13 +2537,13 @@
         <v>243</v>
       </c>
       <c r="L30" t="s">
-        <v>196</v>
+        <v>264</v>
       </c>
       <c r="M30" t="s">
         <v>243</v>
       </c>
       <c r="N30" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2536,13 +2581,10 @@
         <v>243</v>
       </c>
       <c r="L31" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M31" t="s">
-        <v>243</v>
-      </c>
-      <c r="N31" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2574,16 +2616,16 @@
         <v>174</v>
       </c>
       <c r="J32" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="K32" t="s">
         <v>243</v>
       </c>
       <c r="L32" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="M32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2615,19 +2657,19 @@
         <v>175</v>
       </c>
       <c r="J33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K33" t="s">
         <v>243</v>
       </c>
       <c r="L33" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M33" t="s">
         <v>243</v>
       </c>
       <c r="N33" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2659,13 +2701,19 @@
         <v>176</v>
       </c>
       <c r="J34" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K34" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L34" t="s">
+        <v>252</v>
       </c>
       <c r="M34" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N34" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2697,19 +2745,16 @@
         <v>177</v>
       </c>
       <c r="J35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K35" t="s">
         <v>243</v>
       </c>
       <c r="L35" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M35" t="s">
-        <v>243</v>
-      </c>
-      <c r="N35" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2741,16 +2786,16 @@
         <v>178</v>
       </c>
       <c r="J36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K36" t="s">
         <v>243</v>
       </c>
       <c r="L36" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2782,19 +2827,19 @@
         <v>179</v>
       </c>
       <c r="J37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K37" t="s">
         <v>243</v>
       </c>
       <c r="L37" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M37" t="s">
         <v>243</v>
       </c>
       <c r="N37" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2826,19 +2871,13 @@
         <v>180</v>
       </c>
       <c r="J38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K38" t="s">
-        <v>243</v>
-      </c>
-      <c r="L38" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="M38" t="s">
-        <v>243</v>
-      </c>
-      <c r="N38" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2870,19 +2909,13 @@
         <v>181</v>
       </c>
       <c r="J39" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K39" t="s">
-        <v>243</v>
-      </c>
-      <c r="L39" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="M39" t="s">
-        <v>243</v>
-      </c>
-      <c r="N39" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2914,16 +2947,13 @@
         <v>182</v>
       </c>
       <c r="J40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K40" t="s">
-        <v>243</v>
-      </c>
-      <c r="L40" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="M40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2955,19 +2985,19 @@
         <v>183</v>
       </c>
       <c r="J41" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="K41" t="s">
         <v>243</v>
       </c>
       <c r="L41" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M41" t="s">
         <v>243</v>
       </c>
       <c r="N41" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3005,13 +3035,13 @@
         <v>243</v>
       </c>
       <c r="L42" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M42" t="s">
         <v>243</v>
       </c>
       <c r="N42" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3046,10 +3076,10 @@
         <v>234</v>
       </c>
       <c r="K43" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M43" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3084,10 +3114,13 @@
         <v>235</v>
       </c>
       <c r="K44" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L44" t="s">
+        <v>273</v>
       </c>
       <c r="M44" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3125,13 +3158,13 @@
         <v>243</v>
       </c>
       <c r="L45" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="M45" t="s">
         <v>243</v>
       </c>
       <c r="N45" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3163,16 +3196,13 @@
         <v>188</v>
       </c>
       <c r="J46" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="K46" t="s">
-        <v>243</v>
-      </c>
-      <c r="L46" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="M46" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3204,13 +3234,19 @@
         <v>189</v>
       </c>
       <c r="J47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K47" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L47" t="s">
+        <v>274</v>
       </c>
       <c r="M47" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N47" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3242,13 +3278,19 @@
         <v>190</v>
       </c>
       <c r="J48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K48" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L48" t="s">
+        <v>275</v>
       </c>
       <c r="M48" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="N48" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3280,13 +3322,13 @@
         <v>191</v>
       </c>
       <c r="J49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K49" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M49" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3318,13 +3360,16 @@
         <v>192</v>
       </c>
       <c r="J50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K50" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="L50" t="s">
+        <v>276</v>
       </c>
       <c r="M50" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3356,19 +3401,19 @@
         <v>193</v>
       </c>
       <c r="J51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K51" t="s">
         <v>243</v>
       </c>
       <c r="L51" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M51" t="s">
         <v>243</v>
       </c>
       <c r="N51" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="294">
   <si>
     <t>Endereço de e-mail</t>
   </si>
@@ -454,46 +454,46 @@
     <t>PROC-2025-0002</t>
   </si>
   <si>
-    <t>PROC-2025-0003</t>
-  </si>
-  <si>
-    <t>PROC-2023-0004</t>
-  </si>
-  <si>
-    <t>PROC-2024-0005</t>
-  </si>
-  <si>
-    <t>PROC-2024-0006</t>
+    <t>PROC-2024-0003</t>
+  </si>
+  <si>
+    <t>PROC-2024-0004</t>
+  </si>
+  <si>
+    <t>PROC-2023-0005</t>
+  </si>
+  <si>
+    <t>PROC-2025-0006</t>
   </si>
   <si>
     <t>PROC-2024-0007</t>
   </si>
   <si>
-    <t>PROC-2023-0008</t>
-  </si>
-  <si>
-    <t>PROC-2023-0009</t>
+    <t>PROC-2024-0008</t>
+  </si>
+  <si>
+    <t>PROC-2024-0009</t>
   </si>
   <si>
     <t>PROC-2023-0010</t>
   </si>
   <si>
-    <t>PROC-2023-0011</t>
-  </si>
-  <si>
-    <t>PROC-2025-0012</t>
+    <t>PROC-2025-0011</t>
+  </si>
+  <si>
+    <t>PROC-2024-0012</t>
   </si>
   <si>
     <t>PROC-2023-0013</t>
   </si>
   <si>
-    <t>PROC-2025-0014</t>
-  </si>
-  <si>
-    <t>PROC-2023-0015</t>
-  </si>
-  <si>
-    <t>PROC-2024-0016</t>
+    <t>PROC-2024-0014</t>
+  </si>
+  <si>
+    <t>PROC-2025-0015</t>
+  </si>
+  <si>
+    <t>PROC-2025-0016</t>
   </si>
   <si>
     <t>PROC-2023-0017</t>
@@ -505,19 +505,19 @@
     <t>PROC-2025-0019</t>
   </si>
   <si>
-    <t>PROC-2023-0020</t>
-  </si>
-  <si>
-    <t>PROC-2025-0021</t>
-  </si>
-  <si>
-    <t>PROC-2023-0022</t>
-  </si>
-  <si>
-    <t>PROC-2025-0023</t>
-  </si>
-  <si>
-    <t>PROC-2024-0024</t>
+    <t>PROC-2025-0020</t>
+  </si>
+  <si>
+    <t>PROC-2024-0021</t>
+  </si>
+  <si>
+    <t>PROC-2024-0022</t>
+  </si>
+  <si>
+    <t>PROC-2024-0023</t>
+  </si>
+  <si>
+    <t>PROC-2025-0024</t>
   </si>
   <si>
     <t>PROC-2023-0025</t>
@@ -526,70 +526,70 @@
     <t>PROC-2024-0026</t>
   </si>
   <si>
-    <t>PROC-2023-0027</t>
-  </si>
-  <si>
-    <t>PROC-2025-0028</t>
-  </si>
-  <si>
-    <t>PROC-2024-0029</t>
-  </si>
-  <si>
-    <t>PROC-2023-0030</t>
-  </si>
-  <si>
-    <t>PROC-2024-0031</t>
-  </si>
-  <si>
-    <t>PROC-2025-0032</t>
-  </si>
-  <si>
-    <t>PROC-2024-0033</t>
+    <t>PROC-2024-0027</t>
+  </si>
+  <si>
+    <t>PROC-2023-0028</t>
+  </si>
+  <si>
+    <t>PROC-2023-0029</t>
+  </si>
+  <si>
+    <t>PROC-2025-0030</t>
+  </si>
+  <si>
+    <t>PROC-2025-0031</t>
+  </si>
+  <si>
+    <t>PROC-2024-0032</t>
+  </si>
+  <si>
+    <t>PROC-2025-0033</t>
   </si>
   <si>
     <t>PROC-2023-0034</t>
   </si>
   <si>
-    <t>PROC-2025-0035</t>
-  </si>
-  <si>
-    <t>PROC-2023-0036</t>
-  </si>
-  <si>
-    <t>PROC-2023-0037</t>
+    <t>PROC-2023-0035</t>
+  </si>
+  <si>
+    <t>PROC-2024-0036</t>
+  </si>
+  <si>
+    <t>PROC-2025-0037</t>
   </si>
   <si>
     <t>PROC-2023-0038</t>
   </si>
   <si>
-    <t>PROC-2025-0039</t>
+    <t>PROC-2024-0039</t>
   </si>
   <si>
     <t>PROC-2023-0040</t>
   </si>
   <si>
-    <t>PROC-2025-0041</t>
-  </si>
-  <si>
-    <t>PROC-2025-0042</t>
-  </si>
-  <si>
-    <t>PROC-2023-0043</t>
-  </si>
-  <si>
-    <t>PROC-2025-0044</t>
-  </si>
-  <si>
-    <t>PROC-2023-0045</t>
-  </si>
-  <si>
-    <t>PROC-2023-0046</t>
-  </si>
-  <si>
-    <t>PROC-2024-0047</t>
-  </si>
-  <si>
-    <t>PROC-2025-0048</t>
+    <t>PROC-2023-0041</t>
+  </si>
+  <si>
+    <t>PROC-2023-0042</t>
+  </si>
+  <si>
+    <t>PROC-2024-0043</t>
+  </si>
+  <si>
+    <t>PROC-2023-0044</t>
+  </si>
+  <si>
+    <t>PROC-2025-0045</t>
+  </si>
+  <si>
+    <t>PROC-2024-0046</t>
+  </si>
+  <si>
+    <t>PROC-2023-0047</t>
+  </si>
+  <si>
+    <t>PROC-2023-0048</t>
   </si>
   <si>
     <t>PROC-2025-0049</t>
@@ -598,328 +598,304 @@
     <t>PROC-2024-0050</t>
   </si>
   <si>
-    <t>2024-12-02</t>
-  </si>
-  <si>
-    <t>2023-12-07</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
-    <t>2024-07-26</t>
-  </si>
-  <si>
-    <t>2025-08-23</t>
-  </si>
-  <si>
-    <t>2023-01-01</t>
-  </si>
-  <si>
-    <t>2025-03-26</t>
-  </si>
-  <si>
-    <t>2023-03-06</t>
-  </si>
-  <si>
-    <t>2025-10-07</t>
-  </si>
-  <si>
-    <t>2024-07-05</t>
-  </si>
-  <si>
-    <t>2023-11-02</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>2025-09-24</t>
-  </si>
-  <si>
-    <t>2024-09-05</t>
-  </si>
-  <si>
-    <t>2025-11-02</t>
-  </si>
-  <si>
-    <t>2025-09-12</t>
-  </si>
-  <si>
-    <t>2024-02-22</t>
-  </si>
-  <si>
-    <t>2024-01-01</t>
-  </si>
-  <si>
-    <t>2024-10-09</t>
-  </si>
-  <si>
-    <t>2023-12-18</t>
-  </si>
-  <si>
-    <t>2024-01-15</t>
-  </si>
-  <si>
-    <t>2023-09-06</t>
-  </si>
-  <si>
-    <t>2025-02-08</t>
-  </si>
-  <si>
-    <t>2023-03-11</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>2023-05-18</t>
-  </si>
-  <si>
-    <t>2023-06-23</t>
-  </si>
-  <si>
-    <t>2025-09-06</t>
-  </si>
-  <si>
-    <t>2025-11-17</t>
-  </si>
-  <si>
-    <t>2023-10-06</t>
-  </si>
-  <si>
-    <t>2023-09-15</t>
-  </si>
-  <si>
-    <t>2024-03-10</t>
-  </si>
-  <si>
-    <t>2024-08-14</t>
-  </si>
-  <si>
-    <t>2024-03-15</t>
-  </si>
-  <si>
-    <t>2023-04-14</t>
-  </si>
-  <si>
-    <t>2024-10-01</t>
-  </si>
-  <si>
-    <t>2023-11-18</t>
-  </si>
-  <si>
-    <t>2023-07-20</t>
-  </si>
-  <si>
-    <t>2025-12-28</t>
-  </si>
-  <si>
-    <t>2023-06-13</t>
-  </si>
-  <si>
-    <t>2023-06-28</t>
-  </si>
-  <si>
-    <t>2024-01-02</t>
-  </si>
-  <si>
-    <t>2025-11-03</t>
-  </si>
-  <si>
-    <t>2023-12-17</t>
-  </si>
-  <si>
-    <t>2025-09-26</t>
+    <t>2024-04-27</t>
+  </si>
+  <si>
+    <t>2025-09-01</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>2025-10-29</t>
+  </si>
+  <si>
+    <t>2023-03-09</t>
+  </si>
+  <si>
+    <t>2025-03-16</t>
+  </si>
+  <si>
+    <t>2025-03-12</t>
+  </si>
+  <si>
+    <t>2024-05-13</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>2024-04-11</t>
+  </si>
+  <si>
+    <t>2023-09-04</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>2023-02-16</t>
+  </si>
+  <si>
+    <t>2025-07-02</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>2023-02-11</t>
+  </si>
+  <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>2025-06-08</t>
+  </si>
+  <si>
+    <t>2025-08-12</t>
+  </si>
+  <si>
+    <t>2024-12-03</t>
+  </si>
+  <si>
+    <t>2023-03-31</t>
+  </si>
+  <si>
+    <t>2024-04-28</t>
+  </si>
+  <si>
+    <t>2023-11-04</t>
+  </si>
+  <si>
+    <t>2023-12-26</t>
+  </si>
+  <si>
+    <t>2023-07-09</t>
+  </si>
+  <si>
+    <t>2024-08-20</t>
+  </si>
+  <si>
+    <t>2024-04-09</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>2025-07-22</t>
+  </si>
+  <si>
+    <t>2025-05-07</t>
+  </si>
+  <si>
+    <t>2024-11-01</t>
+  </si>
+  <si>
+    <t>2025-01-02</t>
+  </si>
+  <si>
+    <t>2023-07-18</t>
+  </si>
+  <si>
+    <t>2024-10-06</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>2023-09-28</t>
+  </si>
+  <si>
+    <t>2024-03-27</t>
+  </si>
+  <si>
+    <t>2025-02-12</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
+    <t>2024-10-20</t>
+  </si>
+  <si>
+    <t>2024-08-19</t>
+  </si>
+  <si>
+    <t>2025-06-27</t>
+  </si>
+  <si>
+    <t>2024-02-18</t>
+  </si>
+  <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
+    <t>2024-12-28</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>2023-09-27</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>2023-08-31</t>
+  </si>
+  <si>
+    <t>2023-12-31</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>2024-09-20</t>
+  </si>
+  <si>
+    <t>2024-02-10</t>
+  </si>
+  <si>
+    <t>2024-02-09</t>
+  </si>
+  <si>
+    <t>2023-01-24</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
+  </si>
+  <si>
+    <t>2023-08-23</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>2024-01-20</t>
+  </si>
+  <si>
+    <t>2024-03-08</t>
+  </si>
+  <si>
+    <t>2024-04-19</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>2024-04-05</t>
+  </si>
+  <si>
+    <t>2025-05-02</t>
+  </si>
+  <si>
+    <t>2025-12-14</t>
+  </si>
+  <si>
+    <t>2025-07-10</t>
+  </si>
+  <si>
+    <t>2024-08-04</t>
+  </si>
+  <si>
+    <t>2025-07-12</t>
+  </si>
+  <si>
+    <t>2023-01-04</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>2023-11-28</t>
+  </si>
+  <si>
+    <t>2023-03-28</t>
+  </si>
+  <si>
+    <t>2024-04-17</t>
+  </si>
+  <si>
+    <t>2025-09-28</t>
+  </si>
+  <si>
+    <t>2024-06-19</t>
+  </si>
+  <si>
+    <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>2024-02-24</t>
+  </si>
+  <si>
+    <t>2025-01-29</t>
+  </si>
+  <si>
+    <t>2024-12-09</t>
+  </si>
+  <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
+    <t>2025-05-23</t>
+  </si>
+  <si>
+    <t>2024-05-26</t>
+  </si>
+  <si>
+    <t>2023-07-10</t>
+  </si>
+  <si>
+    <t>2023-06-26</t>
+  </si>
+  <si>
+    <t>2023-03-26</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-01-22</t>
   </si>
   <si>
     <t>2024-08-24</t>
   </si>
   <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
-    <t>2023-01-25</t>
-  </si>
-  <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>2025-10-08</t>
-  </si>
-  <si>
-    <t>2025-01-12</t>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
-    <t>2024-04-06</t>
-  </si>
-  <si>
-    <t>2025-05-06</t>
-  </si>
-  <si>
-    <t>2024-08-15</t>
-  </si>
-  <si>
-    <t>2023-09-29</t>
-  </si>
-  <si>
-    <t>2023-12-05</t>
-  </si>
-  <si>
-    <t>2024-02-11</t>
-  </si>
-  <si>
-    <t>2023-08-08</t>
-  </si>
-  <si>
-    <t>2024-06-26</t>
-  </si>
-  <si>
-    <t>2024-10-19</t>
-  </si>
-  <si>
-    <t>2024-03-01</t>
-  </si>
-  <si>
-    <t>2025-10-16</t>
-  </si>
-  <si>
-    <t>2024-05-20</t>
-  </si>
-  <si>
-    <t>2024-09-26</t>
-  </si>
-  <si>
-    <t>2023-09-10</t>
-  </si>
-  <si>
-    <t>2023-01-18</t>
-  </si>
-  <si>
-    <t>2024-12-07</t>
-  </si>
-  <si>
-    <t>2024-01-14</t>
-  </si>
-  <si>
-    <t>2025-02-21</t>
-  </si>
-  <si>
-    <t>2024-01-04</t>
-  </si>
-  <si>
-    <t>2023-03-28</t>
-  </si>
-  <si>
-    <t>2024-08-12</t>
-  </si>
-  <si>
-    <t>2025-06-01</t>
-  </si>
-  <si>
-    <t>2025-05-27</t>
-  </si>
-  <si>
-    <t>2024-03-14</t>
-  </si>
-  <si>
-    <t>2025-10-23</t>
-  </si>
-  <si>
-    <t>2024-11-24</t>
-  </si>
-  <si>
-    <t>2024-05-11</t>
-  </si>
-  <si>
-    <t>2023-03-08</t>
-  </si>
-  <si>
-    <t>2024-04-16</t>
-  </si>
-  <si>
-    <t>2023-11-20</t>
-  </si>
-  <si>
-    <t>2024-12-09</t>
-  </si>
-  <si>
-    <t>2025-06-22</t>
-  </si>
-  <si>
-    <t>2024-08-07</t>
-  </si>
-  <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
-    <t>2025-10-19</t>
-  </si>
-  <si>
-    <t>2024-12-01</t>
-  </si>
-  <si>
-    <t>2024-05-21</t>
-  </si>
-  <si>
-    <t>2023-07-26</t>
-  </si>
-  <si>
-    <t>2023-06-04</t>
-  </si>
-  <si>
-    <t>2025-07-05</t>
-  </si>
-  <si>
-    <t>2023-12-19</t>
-  </si>
-  <si>
-    <t>2025-10-12</t>
-  </si>
-  <si>
-    <t>2024-07-17</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>2024-06-23</t>
-  </si>
-  <si>
-    <t>2024-06-05</t>
-  </si>
-  <si>
-    <t>2023-05-05</t>
-  </si>
-  <si>
-    <t>2023-03-07</t>
-  </si>
-  <si>
-    <t>2023-06-18</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>2024-02-27</t>
-  </si>
-  <si>
-    <t>2023-04-15</t>
-  </si>
-  <si>
-    <t>2025-12-26</t>
-  </si>
-  <si>
-    <t>2023-10-19</t>
-  </si>
-  <si>
-    <t>2024-05-23</t>
+    <t>2023-11-21</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>2024-06-27</t>
+  </si>
+  <si>
+    <t>2024-12-08</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-01-16</t>
+  </si>
+  <si>
+    <t>2024-05-07</t>
   </si>
 </sst>
 </file>
@@ -1359,10 +1335,16 @@
         <v>194</v>
       </c>
       <c r="K2" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="L2" t="s">
+        <v>246</v>
       </c>
       <c r="M2" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="N2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1397,10 +1379,16 @@
         <v>195</v>
       </c>
       <c r="K3" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="L3" t="s">
+        <v>247</v>
       </c>
       <c r="M3" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="N3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1435,10 +1423,16 @@
         <v>196</v>
       </c>
       <c r="K4" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="L4" t="s">
+        <v>248</v>
       </c>
       <c r="M4" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="N4" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1473,16 +1467,13 @@
         <v>197</v>
       </c>
       <c r="K5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M5" t="s">
-        <v>243</v>
-      </c>
-      <c r="N5" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1517,16 +1508,13 @@
         <v>198</v>
       </c>
       <c r="K6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L6" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M6" t="s">
-        <v>243</v>
-      </c>
-      <c r="N6" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1561,16 +1549,13 @@
         <v>199</v>
       </c>
       <c r="K7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M7" t="s">
-        <v>243</v>
-      </c>
-      <c r="N7" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1605,10 +1590,13 @@
         <v>200</v>
       </c>
       <c r="K8" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="L8" t="s">
+        <v>251</v>
       </c>
       <c r="M8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1643,13 +1631,13 @@
         <v>201</v>
       </c>
       <c r="K9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L9" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M9" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1684,16 +1672,10 @@
         <v>202</v>
       </c>
       <c r="K10" t="s">
-        <v>243</v>
-      </c>
-      <c r="L10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M10" t="s">
-        <v>243</v>
-      </c>
-      <c r="N10" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1728,13 +1710,13 @@
         <v>203</v>
       </c>
       <c r="K11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L11" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1769,16 +1751,16 @@
         <v>204</v>
       </c>
       <c r="K12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L12" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N12" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1813,16 +1795,13 @@
         <v>205</v>
       </c>
       <c r="K13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L13" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M13" t="s">
-        <v>243</v>
-      </c>
-      <c r="N13" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1857,13 +1836,13 @@
         <v>206</v>
       </c>
       <c r="K14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L14" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="M14" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1898,16 +1877,10 @@
         <v>207</v>
       </c>
       <c r="K15" t="s">
-        <v>243</v>
-      </c>
-      <c r="L15" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="M15" t="s">
-        <v>243</v>
-      </c>
-      <c r="N15" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1942,10 +1915,16 @@
         <v>208</v>
       </c>
       <c r="K16" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="L16" t="s">
+        <v>256</v>
       </c>
       <c r="M16" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="N16" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1980,10 +1959,10 @@
         <v>209</v>
       </c>
       <c r="K17" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M17" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2018,16 +1997,16 @@
         <v>210</v>
       </c>
       <c r="K18" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L18" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M18" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N18" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2062,16 +2041,10 @@
         <v>211</v>
       </c>
       <c r="K19" t="s">
-        <v>243</v>
-      </c>
-      <c r="L19" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="M19" t="s">
-        <v>243</v>
-      </c>
-      <c r="N19" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2106,13 +2079,10 @@
         <v>212</v>
       </c>
       <c r="K20" t="s">
-        <v>243</v>
-      </c>
-      <c r="L20" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="M20" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2147,16 +2117,16 @@
         <v>213</v>
       </c>
       <c r="K21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N21" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2191,13 +2161,10 @@
         <v>214</v>
       </c>
       <c r="K22" t="s">
-        <v>243</v>
-      </c>
-      <c r="L22" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="M22" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2232,16 +2199,16 @@
         <v>215</v>
       </c>
       <c r="K23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N23" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2276,16 +2243,10 @@
         <v>216</v>
       </c>
       <c r="K24" t="s">
-        <v>243</v>
-      </c>
-      <c r="L24" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s">
-        <v>243</v>
-      </c>
-      <c r="N24" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2320,16 +2281,10 @@
         <v>217</v>
       </c>
       <c r="K25" t="s">
-        <v>243</v>
-      </c>
-      <c r="L25" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s">
-        <v>243</v>
-      </c>
-      <c r="N25" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2364,16 +2319,16 @@
         <v>218</v>
       </c>
       <c r="K26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N26" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2408,16 +2363,10 @@
         <v>219</v>
       </c>
       <c r="K27" t="s">
-        <v>243</v>
-      </c>
-      <c r="L27" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s">
-        <v>243</v>
-      </c>
-      <c r="N27" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2452,10 +2401,13 @@
         <v>220</v>
       </c>
       <c r="K28" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="L28" t="s">
+        <v>261</v>
       </c>
       <c r="M28" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2490,16 +2442,16 @@
         <v>221</v>
       </c>
       <c r="K29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N29" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2534,16 +2486,16 @@
         <v>222</v>
       </c>
       <c r="K30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N30" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2578,13 +2530,16 @@
         <v>223</v>
       </c>
       <c r="K31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M31" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="N31" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2619,13 +2574,10 @@
         <v>224</v>
       </c>
       <c r="K32" t="s">
-        <v>243</v>
-      </c>
-      <c r="L32" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="M32" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2660,16 +2612,16 @@
         <v>225</v>
       </c>
       <c r="K33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L33" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N33" t="s">
-        <v>218</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2704,16 +2656,16 @@
         <v>226</v>
       </c>
       <c r="K34" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L34" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="M34" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N34" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2748,13 +2700,13 @@
         <v>227</v>
       </c>
       <c r="K35" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L35" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="M35" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2789,13 +2741,16 @@
         <v>228</v>
       </c>
       <c r="K36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L36" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M36" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="N36" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2830,16 +2785,16 @@
         <v>229</v>
       </c>
       <c r="K37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N37" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2874,10 +2829,16 @@
         <v>230</v>
       </c>
       <c r="K38" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="L38" t="s">
+        <v>269</v>
       </c>
       <c r="M38" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="N38" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2912,10 +2873,10 @@
         <v>231</v>
       </c>
       <c r="K39" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M39" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2950,10 +2911,16 @@
         <v>232</v>
       </c>
       <c r="K40" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="L40" t="s">
+        <v>270</v>
       </c>
       <c r="M40" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="N40" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2985,19 +2952,16 @@
         <v>183</v>
       </c>
       <c r="J41" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="K41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L41" t="s">
         <v>271</v>
       </c>
       <c r="M41" t="s">
-        <v>243</v>
-      </c>
-      <c r="N41" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3029,19 +2993,13 @@
         <v>184</v>
       </c>
       <c r="J42" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K42" t="s">
-        <v>243</v>
-      </c>
-      <c r="L42" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="M42" t="s">
-        <v>243</v>
-      </c>
-      <c r="N42" t="s">
-        <v>297</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3073,13 +3031,19 @@
         <v>185</v>
       </c>
       <c r="J43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K43" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="L43" t="s">
+        <v>272</v>
       </c>
       <c r="M43" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="N43" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3111,16 +3075,13 @@
         <v>186</v>
       </c>
       <c r="J44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K44" t="s">
-        <v>243</v>
-      </c>
-      <c r="L44" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="M44" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3152,19 +3113,13 @@
         <v>187</v>
       </c>
       <c r="J45" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K45" t="s">
-        <v>243</v>
-      </c>
-      <c r="L45" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="M45" t="s">
-        <v>243</v>
-      </c>
-      <c r="N45" t="s">
-        <v>298</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3196,13 +3151,13 @@
         <v>188</v>
       </c>
       <c r="J46" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="K46" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M46" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3234,19 +3189,19 @@
         <v>189</v>
       </c>
       <c r="J47" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K47" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M47" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N47" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3278,19 +3233,13 @@
         <v>190</v>
       </c>
       <c r="J48" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K48" t="s">
-        <v>243</v>
-      </c>
-      <c r="L48" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="M48" t="s">
-        <v>243</v>
-      </c>
-      <c r="N48" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3322,13 +3271,19 @@
         <v>191</v>
       </c>
       <c r="J49" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K49" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="L49" t="s">
+        <v>274</v>
       </c>
       <c r="M49" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="N49" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3360,16 +3315,13 @@
         <v>192</v>
       </c>
       <c r="J50" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K50" t="s">
-        <v>243</v>
-      </c>
-      <c r="L50" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="M50" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3401,19 +3353,16 @@
         <v>193</v>
       </c>
       <c r="J51" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L51" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M51" t="s">
-        <v>243</v>
-      </c>
-      <c r="N51" t="s">
-        <v>301</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
